--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3231.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3231.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.424731039051113</v>
+        <v>1.174752354621887</v>
       </c>
       <c r="B1">
-        <v>2.877862024368756</v>
+        <v>1.426955223083496</v>
       </c>
       <c r="C1">
-        <v>3.941321342168675</v>
+        <v>1.774097442626953</v>
       </c>
       <c r="D1">
-        <v>3.536730284486014</v>
+        <v>1.618454813957214</v>
       </c>
       <c r="E1">
-        <v>1.205147259827452</v>
+        <v>1.563287615776062</v>
       </c>
     </row>
   </sheetData>
